--- a/academias/Ciencias Sociales - Estadisticos 20211.xlsx
+++ b/academias/Ciencias Sociales - Estadisticos 20211.xlsx
@@ -513,22 +513,25 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.08</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>26.92</v>
+      </c>
+      <c r="I2">
+        <v>6.6</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -545,22 +548,25 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I3">
+        <v>8.5</v>
       </c>
       <c r="J3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -577,22 +583,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>94.12</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>5.88</v>
+      </c>
+      <c r="I4">
+        <v>8.9</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -609,22 +618,25 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>78.13</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>21.88</v>
+      </c>
+      <c r="I5">
+        <v>7.6</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,22 +653,25 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.16</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>36.84</v>
+      </c>
+      <c r="I6">
+        <v>8.1</v>
       </c>
       <c r="J6">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -673,22 +688,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>27.78</v>
+      </c>
+      <c r="I7">
+        <v>7.8</v>
       </c>
       <c r="J7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -705,22 +723,25 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>60.61</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>39.39</v>
+      </c>
+      <c r="I8">
+        <v>8.199999999999999</v>
       </c>
       <c r="J8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -737,22 +758,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>82.86</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>17.14</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1330,22 +1354,25 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.08</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>26.92</v>
+      </c>
+      <c r="I2">
+        <v>6.6</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1362,22 +1389,25 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>91.3</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I3">
+        <v>8.5</v>
       </c>
       <c r="J3">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1394,22 +1424,25 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>94.12</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>5.88</v>
+      </c>
+      <c r="I4">
+        <v>8.9</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1426,22 +1459,25 @@
         <v>32</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>78.13</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>21.88</v>
+      </c>
+      <c r="I5">
+        <v>7.6</v>
       </c>
       <c r="J5">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1458,22 +1494,25 @@
         <v>38</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.16</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>36.84</v>
+      </c>
+      <c r="I6">
+        <v>8.1</v>
       </c>
       <c r="J6">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>23.68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1490,22 +1529,25 @@
         <v>36</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>72.22</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>27.78</v>
+      </c>
+      <c r="I7">
+        <v>7.8</v>
       </c>
       <c r="J7">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1522,22 +1564,25 @@
         <v>33</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>60.61</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>39.39</v>
+      </c>
+      <c r="I8">
+        <v>8.199999999999999</v>
       </c>
       <c r="J8">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1554,22 +1599,25 @@
         <v>35</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>82.86</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>17.14</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
